--- a/inst/extdata/column_keys.xlsx
+++ b/inst/extdata/column_keys.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Header</t>
   </si>
@@ -296,9 +296,6 @@
     <t>Range of LCMS retention times of a peptide match</t>
   </si>
   <si>
-    <t>Number of entries in a peak list</t>
-  </si>
-  <si>
     <t>MS scan number of peptide</t>
   </si>
   <si>
@@ -469,6 +466,33 @@
   </si>
   <si>
     <t>Standard deviation of pep_ms2_deltas</t>
+  </si>
+  <si>
+    <t>pep_ms2_exptints</t>
+  </si>
+  <si>
+    <t>pep_ms2_exptints2</t>
+  </si>
+  <si>
+    <t>Character string of experimental MS2 intensities with matches to pep_ms2_theos (primary ions)</t>
+  </si>
+  <si>
+    <t>Character string of experimental MS2 intensities with matches to pep_ms2_theos2 (secondary ions)</t>
+  </si>
+  <si>
+    <t>pep_n_matches2</t>
+  </si>
+  <si>
+    <t>pep_n_matches</t>
+  </si>
+  <si>
+    <t>Number of MS2 entries in a peak list</t>
+  </si>
+  <si>
+    <t>Number matches between experimental and theoretical m/z values of peptide (primary)</t>
+  </si>
+  <si>
+    <t>Number matches between experimental and theoretical m/z values of peptide (secondary)</t>
   </si>
 </sst>
 </file>
@@ -873,11 +897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +1008,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="C11" s="9"/>
     </row>
@@ -1065,7 +1089,7 @@
         <v>49</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="9"/>
     </row>
@@ -1074,7 +1098,7 @@
         <v>50</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="9"/>
     </row>
@@ -1083,7 +1107,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="9"/>
     </row>
@@ -1092,7 +1116,7 @@
         <v>51</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="9"/>
     </row>
@@ -1101,7 +1125,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -1119,10 +1143,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1136,195 +1160,231 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>99</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>89</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="B39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B40" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="12"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="11"/>
-    </row>
-    <row r="42" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>88</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+    <row r="51" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/inst/extdata/column_keys.xlsx
+++ b/inst/extdata/column_keys.xlsx
@@ -901,7 +901,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,19 +1209,19 @@
     </row>
     <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C34" s="12"/>
     </row>

--- a/inst/extdata/column_keys.xlsx
+++ b/inst/extdata/column_keys.xlsx
@@ -191,9 +191,6 @@
     </r>
   </si>
   <si>
-    <t>The highest probablity from site analysis of the variable modification sites</t>
-  </si>
-  <si>
     <t>Reporter-ion intensity from MS/MS ion search; I000 in LFQ</t>
   </si>
   <si>
@@ -493,6 +490,9 @@
   </si>
   <si>
     <t>Number matches between experimental and theoretical m/z values of peptide (secondary)</t>
+  </si>
+  <si>
+    <t>The probablity of the localization of phospho sites</t>
   </si>
 </sst>
 </file>
@@ -900,8 +900,8 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,28 +933,28 @@
     </row>
     <row r="3" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="C5" s="11"/>
     </row>
@@ -963,7 +963,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="11"/>
     </row>
@@ -972,25 +972,25 @@
         <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="C9" s="11"/>
     </row>
@@ -1005,10 +1005,10 @@
     </row>
     <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="9"/>
     </row>
@@ -1017,7 +1017,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="11"/>
     </row>
@@ -1026,7 +1026,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="11"/>
     </row>
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="11"/>
     </row>
@@ -1053,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="11"/>
     </row>
@@ -1062,7 +1062,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="11"/>
     </row>
@@ -1080,25 +1080,25 @@
         <v>31</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="9"/>
     </row>
@@ -1107,46 +1107,46 @@
         <v>32</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1160,146 +1160,146 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="12"/>
     </row>
     <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,10 +1312,10 @@
     </row>
     <row r="44" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="C44" s="9"/>
     </row>
@@ -1324,7 +1324,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="11"/>
     </row>
@@ -1333,7 +1333,7 @@
         <v>20</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>33</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="9"/>
     </row>
@@ -1385,7 +1385,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/column_keys.xlsx
+++ b/inst/extdata/column_keys.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R\proteoM\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Github\proteoM\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Header</t>
   </si>
@@ -260,12 +260,6 @@
     <t>Is peptide identication significant or not</t>
   </si>
   <si>
-    <t>pep_score_co</t>
-  </si>
-  <si>
-    <t>Peptide enrichment score cut-off</t>
-  </si>
-  <si>
     <t>pep_rank_nl</t>
   </si>
   <si>
@@ -493,6 +487,15 @@
   </si>
   <si>
     <t>The probablity of the localization of phospho sites</t>
+  </si>
+  <si>
+    <t>pep_expect</t>
+  </si>
+  <si>
+    <t>Peptide expectation value</t>
+  </si>
+  <si>
+    <t>10^(pep_score_co - pep_score)/10) * [target_fdr]</t>
   </si>
 </sst>
 </file>
@@ -901,7 +904,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,10 +1008,10 @@
     </row>
     <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="9"/>
     </row>
@@ -1017,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="11"/>
     </row>
@@ -1026,7 +1029,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="11"/>
     </row>
@@ -1035,7 +1038,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -1053,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="11"/>
     </row>
@@ -1062,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="11"/>
     </row>
@@ -1080,7 +1083,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="12"/>
     </row>
@@ -1089,7 +1092,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="9"/>
     </row>
@@ -1098,7 +1101,7 @@
         <v>49</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="9"/>
     </row>
@@ -1107,7 +1110,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C22" s="9"/>
     </row>
@@ -1116,7 +1119,7 @@
         <v>50</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="9"/>
     </row>
@@ -1125,7 +1128,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -1143,10 +1146,10 @@
         <v>54</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1160,137 +1163,137 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="C32" s="12"/>
     </row>
     <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" s="13"/>
     </row>
@@ -1312,19 +1315,21 @@
     </row>
     <row r="44" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45" s="11"/>
     </row>
@@ -1333,7 +1338,7 @@
         <v>20</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>33</v>
@@ -1349,10 +1354,10 @@
     </row>
     <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,7 +1381,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C51" s="9"/>
     </row>

--- a/inst/extdata/column_keys.xlsx
+++ b/inst/extdata/column_keys.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Github\proteoM\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Github\mzion\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ADD051-5114-415B-86CB-652B91D4A6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="proteoM" sheetId="6" r:id="rId1"/>
@@ -19,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Header</t>
   </si>
@@ -128,9 +121,6 @@
   </si>
   <si>
     <t>pep_ret_range</t>
-  </si>
-  <si>
-    <t>pep_frame</t>
   </si>
   <si>
     <r>
@@ -332,9 +322,6 @@
     <t>pep_ms2_deltas_sd</t>
   </si>
   <si>
-    <t>MS1 frame number of peptide</t>
-  </si>
-  <si>
     <t xml:space="preserve">Terminal modifications are not part of the string. Ordianl number in square brackets indicating neutral losses for fixed modifications and in round parentheses for variable modifications. </t>
   </si>
   <si>
@@ -497,11 +484,23 @@
   <si>
     <t>10^(pep_score_co - pep_score)/10) * [target_fdr]</t>
   </si>
+  <si>
+    <t>pep_ms2_iexs</t>
+  </si>
+  <si>
+    <t>pep_ms2_iexs2</t>
+  </si>
+  <si>
+    <t>The corresponding indexes of pep_ms2_deltas along the experiment sequence</t>
+  </si>
+  <si>
+    <t>The corresponding indexes of pep_ms2_deltas along the experiment sequence (secondary)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -578,7 +577,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -588,29 +586,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -899,498 +880,499 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="9" customWidth="1"/>
+    <col min="1" max="1" width="23" style="2" customWidth="1"/>
     <col min="2" max="2" width="63" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="B20" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C35" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="40" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="1:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="12"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="8" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="11"/>
-    </row>
-    <row r="46" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="B49" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
